--- a/document/Document/Informe de trabajo Febrero 2025.xlsx
+++ b/document/Document/Informe de trabajo Febrero 2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF30D59-E5E0-4191-8073-45611E5CBCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F3D0DC-59B8-4E21-8C73-938CF5E86B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F774C09-54D9-4E69-B007-803EB684DA25}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
